--- a/DemoProject/src/test/resources/testdata.xlsx
+++ b/DemoProject/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16296" windowHeight="5196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="5196"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
